--- a/数据/热风-数据未修改版.xlsx
+++ b/数据/热风-数据未修改版.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>热风90℃</t>
   </si>
@@ -54,6 +54,9 @@
     <t>热风80℃</t>
   </si>
   <si>
+    <t>干燥速率%/h</t>
+  </si>
+  <si>
     <t>热风70℃</t>
   </si>
   <si>
@@ -65,30 +68,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -102,9 +91,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -125,80 +128,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -210,6 +139,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,6 +174,66 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -245,6 +241,162 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -254,13 +406,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,163 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,6 +455,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -477,6 +484,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,179 +535,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -693,16 +689,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1533,15 +1529,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="7" max="9" width="12.625"/>
+    <col min="10" max="10" width="13.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1553,7 +1550,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1576,6 +1573,9 @@
       <c r="I2" t="s">
         <v>7</v>
       </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
@@ -1607,7 +1607,7 @@
         <v>0.49425</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -1636,8 +1636,12 @@
         <f t="shared" ref="I4:I19" si="3">G4/(1+G4)</f>
         <v>0.476990692864529</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <f>(G3-G4)*12</f>
+        <v>0.78299555116164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -1666,8 +1670,12 @@
         <f t="shared" si="3"/>
         <v>0.460037367656218</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <f t="shared" ref="J5:J19" si="4">(G4-G5)*12</f>
+        <v>0.720382270555284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>15</v>
       </c>
@@ -1696,8 +1704,12 @@
         <f t="shared" si="3"/>
         <v>0.438644632176112</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>0.846927006096552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>20</v>
       </c>
@@ -1726,8 +1738,12 @@
         <f t="shared" si="3"/>
         <v>0.420011467889908</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>0.686768825177136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>25</v>
       </c>
@@ -1756,8 +1772,12 @@
         <f t="shared" si="3"/>
         <v>0.402461437479488</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>0.607678365463824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>30</v>
       </c>
@@ -1786,8 +1806,12 @@
         <f t="shared" si="3"/>
         <v>0.385334728739745</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0.559565002471584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>35</v>
       </c>
@@ -1816,8 +1840,12 @@
         <f t="shared" si="3"/>
         <v>0.36871120973614</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0.514087988136432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>40</v>
       </c>
@@ -1846,8 +1874,12 @@
         <f t="shared" si="3"/>
         <v>0.352847088931542</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>0.465974625144168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>45</v>
       </c>
@@ -1876,8 +1908,12 @@
         <f t="shared" si="3"/>
         <v>0.338792852992446</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>0.394134124237931</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>50</v>
       </c>
@@ -1906,8 +1942,12 @@
         <f t="shared" si="3"/>
         <v>0.32496663206288</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>0.371725160652493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>55</v>
       </c>
@@ -1936,8 +1976,12 @@
         <f t="shared" si="3"/>
         <v>0.311254019292604</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>0.353929807217016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>60</v>
       </c>
@@ -1966,8 +2010,12 @@
         <f t="shared" si="3"/>
         <v>0.298462605479135</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>0.317680013181744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>65</v>
       </c>
@@ -1996,8 +2044,12 @@
         <f t="shared" si="3"/>
         <v>0.287229877857814</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>0.26956665018948</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>70</v>
       </c>
@@ -2026,8 +2078,12 @@
         <f t="shared" si="3"/>
         <v>0.275516294616211</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>0.272202998846604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>75</v>
       </c>
@@ -2056,8 +2112,12 @@
         <f t="shared" si="3"/>
         <v>0.263590033975085</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>0.268248475860924</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>80</v>
       </c>
@@ -2085,6 +2145,10 @@
       <c r="I19">
         <f t="shared" si="3"/>
         <v>0.251603091088458</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>0.260998517053884</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2150,7 +2214,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2178,7 +2242,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9">
